--- a/data/pca/factorExposure/factorExposure_2015-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0175268638260826</v>
+        <v>0.01706856635215406</v>
       </c>
       <c r="C2">
-        <v>0.03264954967620382</v>
+        <v>-0.03416428849859582</v>
       </c>
       <c r="D2">
-        <v>0.09420039978228967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1212953500561223</v>
+      </c>
+      <c r="E2">
+        <v>-0.06773246719835128</v>
+      </c>
+      <c r="F2">
+        <v>-0.02247473900845619</v>
+      </c>
+      <c r="G2">
+        <v>0.07711702968292888</v>
+      </c>
+      <c r="H2">
+        <v>0.08168096722988785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01814726247632188</v>
+        <v>0.01056367486204252</v>
       </c>
       <c r="C3">
-        <v>0.05115008676831131</v>
+        <v>-0.03458196349801128</v>
       </c>
       <c r="D3">
-        <v>0.1301283862983885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07754454532719648</v>
+      </c>
+      <c r="E3">
+        <v>-0.05559718628323011</v>
+      </c>
+      <c r="F3">
+        <v>-0.0319604964425705</v>
+      </c>
+      <c r="G3">
+        <v>0.07766775859623536</v>
+      </c>
+      <c r="H3">
+        <v>0.03561054839333701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04920069302861061</v>
+        <v>0.05406976560116622</v>
       </c>
       <c r="C4">
-        <v>0.0368494143151919</v>
+        <v>-0.06380672370335597</v>
       </c>
       <c r="D4">
-        <v>0.1247155051311912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1407731874374046</v>
+      </c>
+      <c r="E4">
+        <v>-0.05358357271026463</v>
+      </c>
+      <c r="F4">
+        <v>-0.02155290816102016</v>
+      </c>
+      <c r="G4">
+        <v>-0.02470908498774254</v>
+      </c>
+      <c r="H4">
+        <v>-0.03511150942761727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04281348437496482</v>
+        <v>0.03996420356604159</v>
       </c>
       <c r="C6">
-        <v>0.005671550796210393</v>
+        <v>-0.02610000232572283</v>
       </c>
       <c r="D6">
-        <v>0.1337181357162543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1323038774263097</v>
+      </c>
+      <c r="E6">
+        <v>-0.03070295297148955</v>
+      </c>
+      <c r="F6">
+        <v>-0.01507681007605189</v>
+      </c>
+      <c r="G6">
+        <v>0.01764291905496793</v>
+      </c>
+      <c r="H6">
+        <v>0.007084675144271834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02230417755780692</v>
+        <v>0.01547942207266036</v>
       </c>
       <c r="C7">
-        <v>0.01467708868887709</v>
+        <v>-0.02973619137859067</v>
       </c>
       <c r="D7">
-        <v>0.09385264229274393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09416697013001013</v>
+      </c>
+      <c r="E7">
+        <v>-0.03164381884485477</v>
+      </c>
+      <c r="F7">
+        <v>-0.01746274842545753</v>
+      </c>
+      <c r="G7">
+        <v>-0.006575311573045443</v>
+      </c>
+      <c r="H7">
+        <v>0.1032135993000345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008097699840656248</v>
+        <v>0.006886790301666542</v>
       </c>
       <c r="C8">
-        <v>0.02780232763287195</v>
+        <v>-0.03754904844029156</v>
       </c>
       <c r="D8">
-        <v>0.05692125463325293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07446466314777364</v>
+      </c>
+      <c r="E8">
+        <v>-0.03574414003502939</v>
+      </c>
+      <c r="F8">
+        <v>-0.04045752852201825</v>
+      </c>
+      <c r="G8">
+        <v>0.01131950073447387</v>
+      </c>
+      <c r="H8">
+        <v>0.04128975992683131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0408312237356756</v>
+        <v>0.04157273407986324</v>
       </c>
       <c r="C9">
-        <v>0.03800985890516977</v>
+        <v>-0.05955088717011554</v>
       </c>
       <c r="D9">
-        <v>0.1092739421419134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.118469511951092</v>
+      </c>
+      <c r="E9">
+        <v>-0.0396711982483322</v>
+      </c>
+      <c r="F9">
+        <v>-0.003906113079812903</v>
+      </c>
+      <c r="G9">
+        <v>-0.01661896050439387</v>
+      </c>
+      <c r="H9">
+        <v>0.001240275622215989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09431336365785943</v>
+        <v>0.1367530427330434</v>
       </c>
       <c r="C10">
-        <v>-0.1966475841421587</v>
+        <v>0.1891174168803315</v>
       </c>
       <c r="D10">
-        <v>0.0002235258008611567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.000153016774989622</v>
+      </c>
+      <c r="E10">
+        <v>-0.04645376913173516</v>
+      </c>
+      <c r="F10">
+        <v>-0.02063462082539975</v>
+      </c>
+      <c r="G10">
+        <v>-0.04137524222840546</v>
+      </c>
+      <c r="H10">
+        <v>0.0004040979621489732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03457006526213187</v>
+        <v>0.02851711032886562</v>
       </c>
       <c r="C11">
-        <v>0.03815391707062965</v>
+        <v>-0.04322016446571943</v>
       </c>
       <c r="D11">
-        <v>0.05942601009496822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0575674670299789</v>
+      </c>
+      <c r="E11">
+        <v>0.003999750336373287</v>
+      </c>
+      <c r="F11">
+        <v>-0.002086988726460618</v>
+      </c>
+      <c r="G11">
+        <v>-0.0003527105122927368</v>
+      </c>
+      <c r="H11">
+        <v>0.04603059424903615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03934862313171898</v>
+        <v>0.03366225996874175</v>
       </c>
       <c r="C12">
-        <v>0.04108004210810313</v>
+        <v>-0.04597138657512995</v>
       </c>
       <c r="D12">
-        <v>0.0609795762895736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05720160657367546</v>
+      </c>
+      <c r="E12">
+        <v>-0.00512277629484498</v>
+      </c>
+      <c r="F12">
+        <v>0.003908895599459022</v>
+      </c>
+      <c r="G12">
+        <v>-0.002925816949119287</v>
+      </c>
+      <c r="H12">
+        <v>0.05895214187922588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01581142040677819</v>
+        <v>0.01896160347808695</v>
       </c>
       <c r="C13">
-        <v>0.02801104392814866</v>
+        <v>-0.03830731123218627</v>
       </c>
       <c r="D13">
-        <v>0.1291553707253227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1480974283477506</v>
+      </c>
+      <c r="E13">
+        <v>-0.05528751853058618</v>
+      </c>
+      <c r="F13">
+        <v>-0.02986463850990941</v>
+      </c>
+      <c r="G13">
+        <v>0.0144867150227699</v>
+      </c>
+      <c r="H13">
+        <v>0.09146021126138826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0108596716149445</v>
+        <v>0.007253614500751393</v>
       </c>
       <c r="C14">
-        <v>0.0218596502218952</v>
+        <v>-0.02515910130566415</v>
       </c>
       <c r="D14">
-        <v>0.08146605529892681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08486771611949931</v>
+      </c>
+      <c r="E14">
+        <v>-0.03587154236406492</v>
+      </c>
+      <c r="F14">
+        <v>0.00666973488493054</v>
+      </c>
+      <c r="G14">
+        <v>0.01246571538258463</v>
+      </c>
+      <c r="H14">
+        <v>0.09218835297307594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001301658887877194</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009700630865827684</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03011113106709888</v>
+      </c>
+      <c r="E15">
+        <v>-0.006789207969720704</v>
+      </c>
+      <c r="F15">
+        <v>0.001543723797070188</v>
+      </c>
+      <c r="G15">
+        <v>0.01102790003332318</v>
+      </c>
+      <c r="H15">
+        <v>0.008289544301394731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03617194034203618</v>
+        <v>0.02939423968612125</v>
       </c>
       <c r="C16">
-        <v>0.03940902554737123</v>
+        <v>-0.04351110873314381</v>
       </c>
       <c r="D16">
-        <v>0.06805030494113438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0613430467333712</v>
+      </c>
+      <c r="E16">
+        <v>-0.009176493035679655</v>
+      </c>
+      <c r="F16">
+        <v>0.007048313633946954</v>
+      </c>
+      <c r="G16">
+        <v>0.00429369413310684</v>
+      </c>
+      <c r="H16">
+        <v>0.05427055435224413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00748522681985557</v>
+        <v>0.008174201094695622</v>
       </c>
       <c r="C19">
-        <v>0.0236956620745183</v>
+        <v>-0.021141723894914</v>
       </c>
       <c r="D19">
-        <v>0.1619152853943814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1275026823703693</v>
+      </c>
+      <c r="E19">
+        <v>-0.06745280168766894</v>
+      </c>
+      <c r="F19">
+        <v>0.01393429472567596</v>
+      </c>
+      <c r="G19">
+        <v>0.02334462419711804</v>
+      </c>
+      <c r="H19">
+        <v>0.06044188455634211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0204696003818306</v>
+        <v>0.01581673608351895</v>
       </c>
       <c r="C20">
-        <v>0.02163251916830198</v>
+        <v>-0.03218419204542385</v>
       </c>
       <c r="D20">
-        <v>0.08778058451285674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09772553326418054</v>
+      </c>
+      <c r="E20">
+        <v>-0.05548866833796575</v>
+      </c>
+      <c r="F20">
+        <v>0.001791513237243037</v>
+      </c>
+      <c r="G20">
+        <v>0.005943020139189104</v>
+      </c>
+      <c r="H20">
+        <v>0.05177033058382768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01127978836638802</v>
+        <v>0.01377998851018548</v>
       </c>
       <c r="C21">
-        <v>0.02992069063194832</v>
+        <v>-0.03754719180430443</v>
       </c>
       <c r="D21">
-        <v>0.1253917305218374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1404150560373512</v>
+      </c>
+      <c r="E21">
+        <v>-0.09369872411444174</v>
+      </c>
+      <c r="F21">
+        <v>0.0005455071803514306</v>
+      </c>
+      <c r="G21">
+        <v>-0.02185615198775935</v>
+      </c>
+      <c r="H21">
+        <v>0.1068122047021914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005536944408808541</v>
+        <v>0.005535999202408316</v>
       </c>
       <c r="C22">
-        <v>0.02833158879097399</v>
+        <v>-0.03955914636535415</v>
       </c>
       <c r="D22">
-        <v>0.08104827470456077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.136146893107076</v>
+      </c>
+      <c r="E22">
+        <v>-0.02673944232128251</v>
+      </c>
+      <c r="F22">
+        <v>-0.08883998238767457</v>
+      </c>
+      <c r="G22">
+        <v>0.07954274523405436</v>
+      </c>
+      <c r="H22">
+        <v>-0.05306073751945684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005594456063822115</v>
+        <v>0.005635129520737625</v>
       </c>
       <c r="C23">
-        <v>0.0282591657444481</v>
+        <v>-0.04000798740982972</v>
       </c>
       <c r="D23">
-        <v>0.08041875135840254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1355909253970256</v>
+      </c>
+      <c r="E23">
+        <v>-0.02701891053601488</v>
+      </c>
+      <c r="F23">
+        <v>-0.08880455479653367</v>
+      </c>
+      <c r="G23">
+        <v>0.0786316421370737</v>
+      </c>
+      <c r="H23">
+        <v>-0.05329861281853154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03531376327042165</v>
+        <v>0.03084085391133485</v>
       </c>
       <c r="C24">
-        <v>0.04568069776326614</v>
+        <v>-0.05472025460566621</v>
       </c>
       <c r="D24">
-        <v>0.0678316850486539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06513436435892185</v>
+      </c>
+      <c r="E24">
+        <v>-0.01345258702541238</v>
+      </c>
+      <c r="F24">
+        <v>0.004196007185999397</v>
+      </c>
+      <c r="G24">
+        <v>-0.005656490941199321</v>
+      </c>
+      <c r="H24">
+        <v>0.06480159259580054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04164593302989758</v>
+        <v>0.03588341282597249</v>
       </c>
       <c r="C25">
-        <v>0.04771842713160687</v>
+        <v>-0.05287530087462162</v>
       </c>
       <c r="D25">
-        <v>0.06860249205171647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06230821298716122</v>
+      </c>
+      <c r="E25">
+        <v>-0.01299307441486931</v>
+      </c>
+      <c r="F25">
+        <v>-0.00221821358943381</v>
+      </c>
+      <c r="G25">
+        <v>-0.01179341363462938</v>
+      </c>
+      <c r="H25">
+        <v>0.05368070204053268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01996739716629105</v>
+        <v>0.01764078805400704</v>
       </c>
       <c r="C26">
-        <v>0.007226916456083875</v>
+        <v>-0.01821781312923689</v>
       </c>
       <c r="D26">
-        <v>0.04917123425841303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06145428305536931</v>
+      </c>
+      <c r="E26">
+        <v>-0.02871111422478782</v>
+      </c>
+      <c r="F26">
+        <v>-0.003254384177406509</v>
+      </c>
+      <c r="G26">
+        <v>0.009006020945805765</v>
+      </c>
+      <c r="H26">
+        <v>0.0584525099967924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1381040185501018</v>
+        <v>0.1931835989599203</v>
       </c>
       <c r="C28">
-        <v>-0.2743759917703968</v>
+        <v>0.2546405818066113</v>
       </c>
       <c r="D28">
-        <v>-0.03534309054158026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01497230385981721</v>
+      </c>
+      <c r="E28">
+        <v>-0.07365575562382548</v>
+      </c>
+      <c r="F28">
+        <v>-0.007914078123873724</v>
+      </c>
+      <c r="G28">
+        <v>-0.07097254831086139</v>
+      </c>
+      <c r="H28">
+        <v>0.01223724646345813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00480762504877395</v>
+        <v>0.006040124645040399</v>
       </c>
       <c r="C29">
-        <v>0.0211892172229562</v>
+        <v>-0.02360459736894591</v>
       </c>
       <c r="D29">
-        <v>0.06670523264493937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08120850675639189</v>
+      </c>
+      <c r="E29">
+        <v>-0.03521625396896564</v>
+      </c>
+      <c r="F29">
+        <v>-0.005621636705439591</v>
+      </c>
+      <c r="G29">
+        <v>-0.004525148900627914</v>
+      </c>
+      <c r="H29">
+        <v>0.09640741523611331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04128782502535416</v>
+        <v>0.04239402325573721</v>
       </c>
       <c r="C30">
-        <v>0.03683645611650958</v>
+        <v>-0.05999976341494986</v>
       </c>
       <c r="D30">
-        <v>0.1643432554047353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1783004598961879</v>
+      </c>
+      <c r="E30">
+        <v>-0.02198574261689599</v>
+      </c>
+      <c r="F30">
+        <v>-0.005120303835093868</v>
+      </c>
+      <c r="G30">
+        <v>0.04422878445496899</v>
+      </c>
+      <c r="H30">
+        <v>-0.006931451391375896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06622168380154636</v>
+        <v>0.05450922915408921</v>
       </c>
       <c r="C31">
-        <v>0.05287202222473463</v>
+        <v>-0.07251414868704273</v>
       </c>
       <c r="D31">
-        <v>0.06024000822726629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05047084549216879</v>
+      </c>
+      <c r="E31">
+        <v>-0.02850317054883376</v>
+      </c>
+      <c r="F31">
+        <v>-0.03803205154023562</v>
+      </c>
+      <c r="G31">
+        <v>-0.008312404826526945</v>
+      </c>
+      <c r="H31">
+        <v>0.03676491237398514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00363657077540119</v>
+        <v>0.01181920840293261</v>
       </c>
       <c r="C32">
-        <v>0.007388547223232041</v>
+        <v>-0.01847220016651084</v>
       </c>
       <c r="D32">
-        <v>0.06205316036625916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.099682888110092</v>
+      </c>
+      <c r="E32">
+        <v>-0.09710024994790389</v>
+      </c>
+      <c r="F32">
+        <v>-0.01557994504791506</v>
+      </c>
+      <c r="G32">
+        <v>-0.02134426866773927</v>
+      </c>
+      <c r="H32">
+        <v>0.08205722887079614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02634906935217564</v>
+        <v>0.02462739790140815</v>
       </c>
       <c r="C33">
-        <v>0.02250387486483469</v>
+        <v>-0.04178773845298565</v>
       </c>
       <c r="D33">
-        <v>0.1331387852174259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1325658200128959</v>
+      </c>
+      <c r="E33">
+        <v>-0.04442618283432985</v>
+      </c>
+      <c r="F33">
+        <v>-0.0157072412914456</v>
+      </c>
+      <c r="G33">
+        <v>0.005750569902418484</v>
+      </c>
+      <c r="H33">
+        <v>0.05979687819936872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03305709047985387</v>
+        <v>0.02780143408751936</v>
       </c>
       <c r="C34">
-        <v>0.06061637450865662</v>
+        <v>-0.06133350460841001</v>
       </c>
       <c r="D34">
-        <v>0.07017216261074628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05939941553108846</v>
+      </c>
+      <c r="E34">
+        <v>0.004728452403105901</v>
+      </c>
+      <c r="F34">
+        <v>0.009567301551015178</v>
+      </c>
+      <c r="G34">
+        <v>-0.007653854320689637</v>
+      </c>
+      <c r="H34">
+        <v>0.07400755151351064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005828550485377673</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0006006936411415172</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0039854311762377</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002216853003361841</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002977738318870612</v>
+      </c>
+      <c r="G35">
+        <v>0.001333183318040984</v>
+      </c>
+      <c r="H35">
+        <v>0.002286770242909643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02011253526531693</v>
+        <v>0.0183133679739617</v>
       </c>
       <c r="C36">
-        <v>0.003038620522302137</v>
+        <v>-0.01563017046767078</v>
       </c>
       <c r="D36">
-        <v>0.07425708246858521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07850369894037311</v>
+      </c>
+      <c r="E36">
+        <v>-0.03608402404287203</v>
+      </c>
+      <c r="F36">
+        <v>0.0008677285331926699</v>
+      </c>
+      <c r="G36">
+        <v>-0.004613134550493302</v>
+      </c>
+      <c r="H36">
+        <v>0.0487746023155651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02622852055045097</v>
+        <v>0.02119178762976709</v>
       </c>
       <c r="C38">
-        <v>0.01772821120801665</v>
+        <v>-0.02184390877641356</v>
       </c>
       <c r="D38">
-        <v>0.05081676642075715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05580873810967028</v>
+      </c>
+      <c r="E38">
+        <v>-0.03798863536224117</v>
+      </c>
+      <c r="F38">
+        <v>0.005107307714276048</v>
+      </c>
+      <c r="G38">
+        <v>0.0356406800916161</v>
+      </c>
+      <c r="H38">
+        <v>0.03805306323679115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04161288926648857</v>
+        <v>0.03650098897713744</v>
       </c>
       <c r="C39">
-        <v>0.05258844674534404</v>
+        <v>-0.06436066165485575</v>
       </c>
       <c r="D39">
-        <v>0.09260211201099883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1051198314074082</v>
+      </c>
+      <c r="E39">
+        <v>-0.01023462883267846</v>
+      </c>
+      <c r="F39">
+        <v>0.0262553404173682</v>
+      </c>
+      <c r="G39">
+        <v>0.01128110777554983</v>
+      </c>
+      <c r="H39">
+        <v>0.07616891624584166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01794254056121604</v>
+        <v>0.01470968834532498</v>
       </c>
       <c r="C40">
-        <v>0.04316025002964229</v>
+        <v>-0.03657233873110496</v>
       </c>
       <c r="D40">
-        <v>0.07566722492472462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08510410124993593</v>
+      </c>
+      <c r="E40">
+        <v>-0.06556177888847783</v>
+      </c>
+      <c r="F40">
+        <v>-0.0619579832563119</v>
+      </c>
+      <c r="G40">
+        <v>0.04988243753172041</v>
+      </c>
+      <c r="H40">
+        <v>0.1611180701415851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02428227842876529</v>
+        <v>0.0229141595739178</v>
       </c>
       <c r="C41">
-        <v>-0.008572996577547448</v>
+        <v>-0.00781644348765425</v>
       </c>
       <c r="D41">
-        <v>0.06695704096053968</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05560628158805947</v>
+      </c>
+      <c r="E41">
+        <v>-0.05189841791419154</v>
+      </c>
+      <c r="F41">
+        <v>-0.003639700114060912</v>
+      </c>
+      <c r="G41">
+        <v>0.009642908547710282</v>
+      </c>
+      <c r="H41">
+        <v>0.04686921924378239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03311877638884345</v>
+        <v>0.02468538222849355</v>
       </c>
       <c r="C43">
-        <v>0.002838495225071834</v>
+        <v>-0.01872835588988237</v>
       </c>
       <c r="D43">
-        <v>0.1054579886378033</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08610131839733008</v>
+      </c>
+      <c r="E43">
+        <v>-0.03374137325010257</v>
+      </c>
+      <c r="F43">
+        <v>-0.005285445046699187</v>
+      </c>
+      <c r="G43">
+        <v>0.01243055586141839</v>
+      </c>
+      <c r="H43">
+        <v>0.06471876223094494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01230486505642778</v>
+        <v>0.01683261853005091</v>
       </c>
       <c r="C44">
-        <v>0.0393842114712229</v>
+        <v>-0.04099136725097616</v>
       </c>
       <c r="D44">
-        <v>0.08626558159036272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09898703603428846</v>
+      </c>
+      <c r="E44">
+        <v>-0.07320255728111033</v>
+      </c>
+      <c r="F44">
+        <v>-0.006437692218841722</v>
+      </c>
+      <c r="G44">
+        <v>-0.0007238249242801279</v>
+      </c>
+      <c r="H44">
+        <v>0.07092596843109787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02012696303395446</v>
+        <v>0.01627336094618123</v>
       </c>
       <c r="C46">
-        <v>0.02046220065928471</v>
+        <v>-0.02944006253065955</v>
       </c>
       <c r="D46">
-        <v>0.07808020679957763</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08991549092166852</v>
+      </c>
+      <c r="E46">
+        <v>-0.04050125967641523</v>
+      </c>
+      <c r="F46">
+        <v>0.01560624374463773</v>
+      </c>
+      <c r="G46">
+        <v>-0.01416699554339778</v>
+      </c>
+      <c r="H46">
+        <v>0.09945895480713246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09529476143086275</v>
+        <v>0.08480810489435772</v>
       </c>
       <c r="C47">
-        <v>0.06890480171940275</v>
+        <v>-0.08964235038581009</v>
       </c>
       <c r="D47">
-        <v>0.04045404583452362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03232928519606794</v>
+      </c>
+      <c r="E47">
+        <v>-0.03622284312563116</v>
+      </c>
+      <c r="F47">
+        <v>-0.02385771248888521</v>
+      </c>
+      <c r="G47">
+        <v>-0.05151585455333482</v>
+      </c>
+      <c r="H47">
+        <v>0.0226405861695082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01585343359959294</v>
+        <v>0.01612959221501266</v>
       </c>
       <c r="C48">
-        <v>0.01200685698638524</v>
+        <v>-0.02074304560711672</v>
       </c>
       <c r="D48">
-        <v>0.06522379949428463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07457532252058444</v>
+      </c>
+      <c r="E48">
+        <v>-0.05502197406946575</v>
+      </c>
+      <c r="F48">
+        <v>0.005601180515232792</v>
+      </c>
+      <c r="G48">
+        <v>-0.0006785567055696793</v>
+      </c>
+      <c r="H48">
+        <v>0.05505476594742932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07684858844638728</v>
+        <v>0.05919079274230188</v>
       </c>
       <c r="C50">
-        <v>0.06384102111753247</v>
+        <v>-0.06969731290113333</v>
       </c>
       <c r="D50">
-        <v>0.06165220255002026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05531241066461662</v>
+      </c>
+      <c r="E50">
+        <v>-0.03879083860004316</v>
+      </c>
+      <c r="F50">
+        <v>-0.04420818907622895</v>
+      </c>
+      <c r="G50">
+        <v>0.01394368698000909</v>
+      </c>
+      <c r="H50">
+        <v>0.04160245472325746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006965625266721284</v>
+        <v>0.006191028046968306</v>
       </c>
       <c r="C51">
-        <v>0.01547984233142541</v>
+        <v>-0.01690465357951003</v>
       </c>
       <c r="D51">
-        <v>0.07740084753832129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08784936814895061</v>
+      </c>
+      <c r="E51">
+        <v>-0.02706892456987065</v>
+      </c>
+      <c r="F51">
+        <v>-0.001667304190169374</v>
+      </c>
+      <c r="G51">
+        <v>0.01730350517100917</v>
+      </c>
+      <c r="H51">
+        <v>0.07337348511258578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07588096228278168</v>
+        <v>0.08674076573601747</v>
       </c>
       <c r="C53">
-        <v>0.088512190251868</v>
+        <v>-0.1008281763315843</v>
       </c>
       <c r="D53">
-        <v>0.02069352496411135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009308879436585945</v>
+      </c>
+      <c r="E53">
+        <v>-0.1021248299379614</v>
+      </c>
+      <c r="F53">
+        <v>-0.04722119940316583</v>
+      </c>
+      <c r="G53">
+        <v>-0.09124959464438034</v>
+      </c>
+      <c r="H53">
+        <v>-0.005546716055476253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03414997778770339</v>
+        <v>0.02640987909623182</v>
       </c>
       <c r="C54">
-        <v>0.03324673162663813</v>
+        <v>-0.03585741998193815</v>
       </c>
       <c r="D54">
-        <v>0.08754051890492899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08747347891748436</v>
+      </c>
+      <c r="E54">
+        <v>-0.04458505830952447</v>
+      </c>
+      <c r="F54">
+        <v>0.01414479358495041</v>
+      </c>
+      <c r="G54">
+        <v>0.01783209297981771</v>
+      </c>
+      <c r="H54">
+        <v>0.1084491759646956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08700731315550228</v>
+        <v>0.08391141216475212</v>
       </c>
       <c r="C55">
-        <v>0.06745404293857217</v>
+        <v>-0.08188093454413688</v>
       </c>
       <c r="D55">
-        <v>-0.005089551820443748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01164065131352249</v>
+      </c>
+      <c r="E55">
+        <v>-0.06110285017306779</v>
+      </c>
+      <c r="F55">
+        <v>-0.04463246217058545</v>
+      </c>
+      <c r="G55">
+        <v>-0.0416755759299737</v>
+      </c>
+      <c r="H55">
+        <v>-0.01278444451718735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1356872014744351</v>
+        <v>0.1305486447850132</v>
       </c>
       <c r="C56">
-        <v>0.1023429145353853</v>
+        <v>-0.1248674509724449</v>
       </c>
       <c r="D56">
-        <v>0.009265226190003421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007022176666468557</v>
+      </c>
+      <c r="E56">
+        <v>-0.06357313833360494</v>
+      </c>
+      <c r="F56">
+        <v>-0.03194798950187289</v>
+      </c>
+      <c r="G56">
+        <v>-0.05838827576344</v>
+      </c>
+      <c r="H56">
+        <v>-0.001256834846618552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02490150659091056</v>
+        <v>0.0307244714519588</v>
       </c>
       <c r="C58">
-        <v>-0.02491075260924061</v>
+        <v>-0.0188667221051837</v>
       </c>
       <c r="D58">
-        <v>0.3616861299013868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3759307709965959</v>
+      </c>
+      <c r="E58">
+        <v>-0.1912092057742388</v>
+      </c>
+      <c r="F58">
+        <v>-0.1508773315175818</v>
+      </c>
+      <c r="G58">
+        <v>0.3319862992542565</v>
+      </c>
+      <c r="H58">
+        <v>-0.4151279261966627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1368885513471643</v>
+        <v>0.1740597055960371</v>
       </c>
       <c r="C59">
-        <v>-0.1935088010085627</v>
+        <v>0.1717215225194391</v>
       </c>
       <c r="D59">
-        <v>0.0229943578868552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04882426010386574</v>
+      </c>
+      <c r="E59">
+        <v>-0.02099193003286097</v>
+      </c>
+      <c r="F59">
+        <v>0.03962005281605691</v>
+      </c>
+      <c r="G59">
+        <v>0.001611362597152304</v>
+      </c>
+      <c r="H59">
+        <v>-0.02420766189727895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2545228735750749</v>
+        <v>0.2301114200864775</v>
       </c>
       <c r="C60">
-        <v>0.06054842782448908</v>
+        <v>-0.09944630755427887</v>
       </c>
       <c r="D60">
-        <v>0.1617082633671639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.112255586152497</v>
+      </c>
+      <c r="E60">
+        <v>0.3669455136396069</v>
+      </c>
+      <c r="F60">
+        <v>-0.01879447935138</v>
+      </c>
+      <c r="G60">
+        <v>-0.03746762474436691</v>
+      </c>
+      <c r="H60">
+        <v>-0.09239064704145572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04689283043561427</v>
+        <v>0.04160386878636705</v>
       </c>
       <c r="C61">
-        <v>0.05125605214070918</v>
+        <v>-0.05943744189119811</v>
       </c>
       <c r="D61">
-        <v>0.1016362484847229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09406031500864291</v>
+      </c>
+      <c r="E61">
+        <v>-0.004574349065201448</v>
+      </c>
+      <c r="F61">
+        <v>0.01657515076869494</v>
+      </c>
+      <c r="G61">
+        <v>-0.01315148282513811</v>
+      </c>
+      <c r="H61">
+        <v>0.07644317970485592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01596502306831158</v>
+        <v>0.01468102717880299</v>
       </c>
       <c r="C63">
-        <v>0.01940241357001772</v>
+        <v>-0.03246811689068402</v>
       </c>
       <c r="D63">
-        <v>0.06002887098213956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06895596336550996</v>
+      </c>
+      <c r="E63">
+        <v>-0.03055881869127848</v>
+      </c>
+      <c r="F63">
+        <v>-0.01835092968274504</v>
+      </c>
+      <c r="G63">
+        <v>0.00672129073075354</v>
+      </c>
+      <c r="H63">
+        <v>0.04344530710195015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05829271197680944</v>
+        <v>0.05414852795568369</v>
       </c>
       <c r="C64">
-        <v>0.06175531109596336</v>
+        <v>-0.0801527314042166</v>
       </c>
       <c r="D64">
-        <v>0.05539197906148621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05190206008443469</v>
+      </c>
+      <c r="E64">
+        <v>-0.02999552736561112</v>
+      </c>
+      <c r="F64">
+        <v>0.01593145722861389</v>
+      </c>
+      <c r="G64">
+        <v>-0.04533580804326301</v>
+      </c>
+      <c r="H64">
+        <v>0.04472616193238341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05709541384172095</v>
+        <v>0.04964705517967122</v>
       </c>
       <c r="C65">
-        <v>0.001883327148193325</v>
+        <v>-0.02450315150543323</v>
       </c>
       <c r="D65">
-        <v>0.1093467674704535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1160102141164763</v>
+      </c>
+      <c r="E65">
+        <v>0.001130727393978739</v>
+      </c>
+      <c r="F65">
+        <v>-0.01434152199782836</v>
+      </c>
+      <c r="G65">
+        <v>0.03136601451124908</v>
+      </c>
+      <c r="H65">
+        <v>-0.02641237735937434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04390694424664082</v>
+        <v>0.0411866247608208</v>
       </c>
       <c r="C66">
-        <v>0.05517115404290918</v>
+        <v>-0.07256719218373303</v>
       </c>
       <c r="D66">
-        <v>0.1129365377959302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1305852139200601</v>
+      </c>
+      <c r="E66">
+        <v>-0.01572654448248887</v>
+      </c>
+      <c r="F66">
+        <v>0.01027570593033932</v>
+      </c>
+      <c r="G66">
+        <v>0.01757866473287628</v>
+      </c>
+      <c r="H66">
+        <v>0.05425232404758029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04456489148602192</v>
+        <v>0.03753609925436676</v>
       </c>
       <c r="C67">
-        <v>0.02579763207695413</v>
+        <v>-0.02818624126236238</v>
       </c>
       <c r="D67">
-        <v>0.02223001198983872</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01779402072837401</v>
+      </c>
+      <c r="E67">
+        <v>-0.01760923613226681</v>
+      </c>
+      <c r="F67">
+        <v>0.0007441287968057445</v>
+      </c>
+      <c r="G67">
+        <v>0.03008883406094289</v>
+      </c>
+      <c r="H67">
+        <v>0.03916019739292517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1646915909920287</v>
+        <v>0.1941686162352892</v>
       </c>
       <c r="C68">
-        <v>-0.2509922927007169</v>
+        <v>0.2048045222697014</v>
       </c>
       <c r="D68">
-        <v>-0.02146675494833486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0102222792792979</v>
+      </c>
+      <c r="E68">
+        <v>-0.04804707209261518</v>
+      </c>
+      <c r="F68">
+        <v>-0.03133207003625273</v>
+      </c>
+      <c r="G68">
+        <v>0.008528603947191075</v>
+      </c>
+      <c r="H68">
+        <v>-0.007255668872435783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08488353946131899</v>
+        <v>0.07633292427612778</v>
       </c>
       <c r="C69">
-        <v>0.08279030863736167</v>
+        <v>-0.09851066100497646</v>
       </c>
       <c r="D69">
-        <v>0.05333903694732221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04446699123172264</v>
+      </c>
+      <c r="E69">
+        <v>-0.02781011388089284</v>
+      </c>
+      <c r="F69">
+        <v>-0.004372596204522386</v>
+      </c>
+      <c r="G69">
+        <v>-0.03276771273301565</v>
+      </c>
+      <c r="H69">
+        <v>0.03184568231400148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1384676138742798</v>
+        <v>0.1790040486270737</v>
       </c>
       <c r="C71">
-        <v>-0.2465970365594654</v>
+        <v>0.2157908849883005</v>
       </c>
       <c r="D71">
-        <v>0.01395586319482022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03377441914686823</v>
+      </c>
+      <c r="E71">
+        <v>-0.05187713823526768</v>
+      </c>
+      <c r="F71">
+        <v>-0.03626910926658283</v>
+      </c>
+      <c r="G71">
+        <v>-0.0326776994721465</v>
+      </c>
+      <c r="H71">
+        <v>0.02569655098549603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09804905405416764</v>
+        <v>0.09982619959273481</v>
       </c>
       <c r="C72">
-        <v>0.03896842242171834</v>
+        <v>-0.06733747264439335</v>
       </c>
       <c r="D72">
-        <v>0.09210764259794377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09718422094001038</v>
+      </c>
+      <c r="E72">
+        <v>0.03622598992867123</v>
+      </c>
+      <c r="F72">
+        <v>-0.03502015549056997</v>
+      </c>
+      <c r="G72">
+        <v>-0.0244270363754924</v>
+      </c>
+      <c r="H72">
+        <v>0.02357617840735279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2998602507616698</v>
+        <v>0.2517205164638135</v>
       </c>
       <c r="C73">
-        <v>0.008621790112638633</v>
+        <v>-0.08164738535971691</v>
       </c>
       <c r="D73">
-        <v>0.2723876209504469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1813908465765847</v>
+      </c>
+      <c r="E73">
+        <v>0.6699399239437632</v>
+      </c>
+      <c r="F73">
+        <v>-0.007103417753632576</v>
+      </c>
+      <c r="G73">
+        <v>0.007944797102038766</v>
+      </c>
+      <c r="H73">
+        <v>-0.1413395254698262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1027456896784237</v>
+        <v>0.09975877664458269</v>
       </c>
       <c r="C74">
-        <v>0.07070664199736255</v>
+        <v>-0.09026390607581213</v>
       </c>
       <c r="D74">
-        <v>0.01893167442387217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.002801827440896261</v>
+      </c>
+      <c r="E74">
+        <v>-0.08027430535213602</v>
+      </c>
+      <c r="F74">
+        <v>-0.05972850460093083</v>
+      </c>
+      <c r="G74">
+        <v>-0.06444059051358624</v>
+      </c>
+      <c r="H74">
+        <v>-0.03593893443526276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2400487281830242</v>
+        <v>0.231831279174917</v>
       </c>
       <c r="C75">
-        <v>0.1274263365503798</v>
+        <v>-0.1654502481051621</v>
       </c>
       <c r="D75">
-        <v>-0.04358408545715109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0868859906220347</v>
+      </c>
+      <c r="E75">
+        <v>-0.09911636489449999</v>
+      </c>
+      <c r="F75">
+        <v>-0.006534543049537348</v>
+      </c>
+      <c r="G75">
+        <v>-0.08612081780692742</v>
+      </c>
+      <c r="H75">
+        <v>-0.09842323338383971</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1286161461891201</v>
+        <v>0.1268518520487174</v>
       </c>
       <c r="C76">
-        <v>0.08907117626664381</v>
+        <v>-0.1143062869534322</v>
       </c>
       <c r="D76">
-        <v>0.001230100645398749</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01390525293652256</v>
+      </c>
+      <c r="E76">
+        <v>-0.1133559200163278</v>
+      </c>
+      <c r="F76">
+        <v>-0.02844518928407317</v>
+      </c>
+      <c r="G76">
+        <v>-0.05970663276784703</v>
+      </c>
+      <c r="H76">
+        <v>-0.001614400385226477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06177152687708592</v>
+        <v>0.0608392109936665</v>
       </c>
       <c r="C77">
-        <v>0.06090265895437401</v>
+        <v>-0.06937924170237229</v>
       </c>
       <c r="D77">
-        <v>0.05261029143885666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1231005830233965</v>
+      </c>
+      <c r="E77">
+        <v>-0.2081206899066375</v>
+      </c>
+      <c r="F77">
+        <v>0.233293283212614</v>
+      </c>
+      <c r="G77">
+        <v>0.09835726364712598</v>
+      </c>
+      <c r="H77">
+        <v>-0.1852730005839518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03947454179199138</v>
+        <v>0.04102027598365959</v>
       </c>
       <c r="C78">
-        <v>0.05060799870967246</v>
+        <v>-0.06301013179786187</v>
       </c>
       <c r="D78">
-        <v>0.1118507069208512</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.126682511601318</v>
+      </c>
+      <c r="E78">
+        <v>-0.01861649831627504</v>
+      </c>
+      <c r="F78">
+        <v>-0.0117802886987449</v>
+      </c>
+      <c r="G78">
+        <v>-0.01859773678357683</v>
+      </c>
+      <c r="H78">
+        <v>0.03030541774536773</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0002984443306750309</v>
+        <v>0.04301701653307152</v>
       </c>
       <c r="C79">
-        <v>0.0004004027428255193</v>
+        <v>-0.08678681866966957</v>
       </c>
       <c r="D79">
-        <v>0.01797500502283294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02523919194419669</v>
+      </c>
+      <c r="E79">
+        <v>-0.1852116424557658</v>
+      </c>
+      <c r="F79">
+        <v>-0.1276227891470947</v>
+      </c>
+      <c r="G79">
+        <v>-0.6157131402560166</v>
+      </c>
+      <c r="H79">
+        <v>-0.4784150793534575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03095025121776178</v>
+        <v>0.0246322390162261</v>
       </c>
       <c r="C80">
-        <v>0.02604664394295204</v>
+        <v>-0.04188292652466993</v>
       </c>
       <c r="D80">
-        <v>0.02562408438768405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0341917497251109</v>
+      </c>
+      <c r="E80">
+        <v>-0.02495617395206634</v>
+      </c>
+      <c r="F80">
+        <v>0.03254868376910166</v>
+      </c>
+      <c r="G80">
+        <v>0.05671432729329818</v>
+      </c>
+      <c r="H80">
+        <v>0.01408340702465793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1440430140929928</v>
+        <v>0.1293801960186174</v>
       </c>
       <c r="C81">
-        <v>0.09434521643903877</v>
+        <v>-0.1182739617992841</v>
       </c>
       <c r="D81">
-        <v>-0.04723019627220701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0639158417066787</v>
+      </c>
+      <c r="E81">
+        <v>-0.1208925340810656</v>
+      </c>
+      <c r="F81">
+        <v>-0.02118681891844978</v>
+      </c>
+      <c r="G81">
+        <v>-0.05108344290353928</v>
+      </c>
+      <c r="H81">
+        <v>-0.02162771611573663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2976223867790503</v>
+        <v>0.2520563164653568</v>
       </c>
       <c r="C82">
-        <v>0.2652629021384993</v>
+        <v>-0.2534648140110095</v>
       </c>
       <c r="D82">
-        <v>-0.2261980096819679</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2217399762991288</v>
+      </c>
+      <c r="E82">
+        <v>0.008599212863245985</v>
+      </c>
+      <c r="F82">
+        <v>-0.04245899350855609</v>
+      </c>
+      <c r="G82">
+        <v>-0.1945960294531877</v>
+      </c>
+      <c r="H82">
+        <v>0.4902028639247038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02844362546422939</v>
+        <v>0.02241194961085121</v>
       </c>
       <c r="C83">
-        <v>0.04589575407910958</v>
+        <v>-0.05241321663884144</v>
       </c>
       <c r="D83">
-        <v>0.04701391430181383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05073073358780083</v>
+      </c>
+      <c r="E83">
+        <v>-0.01108456144013569</v>
+      </c>
+      <c r="F83">
+        <v>0.02119538066497801</v>
+      </c>
+      <c r="G83">
+        <v>0.005256214393524593</v>
+      </c>
+      <c r="H83">
+        <v>0.02946673739637631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004139310885231421</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004746221436900237</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01661621674691573</v>
+      </c>
+      <c r="E84">
+        <v>-0.01525713316877491</v>
+      </c>
+      <c r="F84">
+        <v>-0.007417436253071486</v>
+      </c>
+      <c r="G84">
+        <v>0.01134484574261029</v>
+      </c>
+      <c r="H84">
+        <v>-0.0002656753144119549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1839041061782672</v>
+        <v>0.1619791089497391</v>
       </c>
       <c r="C85">
-        <v>0.09219999613955331</v>
+        <v>-0.1332629255260082</v>
       </c>
       <c r="D85">
-        <v>-0.02231737492415915</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06065821260472824</v>
+      </c>
+      <c r="E85">
+        <v>-0.04154772075159351</v>
+      </c>
+      <c r="F85">
+        <v>-0.04032658664184276</v>
+      </c>
+      <c r="G85">
+        <v>-0.09766206554065188</v>
+      </c>
+      <c r="H85">
+        <v>-0.105144652884743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.013673399776394</v>
+        <v>0.01864338095886242</v>
       </c>
       <c r="C86">
-        <v>0.0225298116411096</v>
+        <v>-0.0228685707926624</v>
       </c>
       <c r="D86">
-        <v>0.1361793623444124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1256420608167719</v>
+      </c>
+      <c r="E86">
+        <v>-0.0135544802180955</v>
+      </c>
+      <c r="F86">
+        <v>0.008083040352719168</v>
+      </c>
+      <c r="G86">
+        <v>-0.01769742537496161</v>
+      </c>
+      <c r="H86">
+        <v>0.07158081969009676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02675081576606212</v>
+        <v>0.03258528376032292</v>
       </c>
       <c r="C87">
-        <v>0.001696546519848302</v>
+        <v>-0.02578369713442984</v>
       </c>
       <c r="D87">
-        <v>0.0926777471833692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.13105087361406</v>
+      </c>
+      <c r="E87">
+        <v>-0.0855607304687572</v>
+      </c>
+      <c r="F87">
+        <v>0.008558338976106913</v>
+      </c>
+      <c r="G87">
+        <v>0.02053983659207914</v>
+      </c>
+      <c r="H87">
+        <v>0.02677421207678392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07837269624763835</v>
+        <v>0.07034431381760159</v>
       </c>
       <c r="C88">
-        <v>0.04122307095363205</v>
+        <v>-0.05710075102955083</v>
       </c>
       <c r="D88">
-        <v>0.03412428122350623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01848718305297368</v>
+      </c>
+      <c r="E88">
+        <v>-0.01979526137705784</v>
+      </c>
+      <c r="F88">
+        <v>-0.004815117324653008</v>
+      </c>
+      <c r="G88">
+        <v>-0.006421056291195749</v>
+      </c>
+      <c r="H88">
+        <v>0.03886851049924706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1980069443188561</v>
+        <v>0.272588500107394</v>
       </c>
       <c r="C89">
-        <v>-0.3729452142144553</v>
+        <v>0.3544102372117203</v>
       </c>
       <c r="D89">
-        <v>-0.03590031659380931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002124551966135437</v>
+      </c>
+      <c r="E89">
+        <v>-0.05522333648882157</v>
+      </c>
+      <c r="F89">
+        <v>0.05082653236314408</v>
+      </c>
+      <c r="G89">
+        <v>-0.03147126854129093</v>
+      </c>
+      <c r="H89">
+        <v>0.0617715500281599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1993062710096576</v>
+        <v>0.2382139045270941</v>
       </c>
       <c r="C90">
-        <v>-0.2989272910814954</v>
+        <v>0.2590862282333904</v>
       </c>
       <c r="D90">
-        <v>-0.0404385736404935</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01144362278354647</v>
+      </c>
+      <c r="E90">
+        <v>-0.04723162434366637</v>
+      </c>
+      <c r="F90">
+        <v>-0.01230854876584384</v>
+      </c>
+      <c r="G90">
+        <v>0.04483594205864038</v>
+      </c>
+      <c r="H90">
+        <v>0.0473899191361908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1773449721738296</v>
+        <v>0.162251357597118</v>
       </c>
       <c r="C91">
-        <v>0.1287570711466324</v>
+        <v>-0.1561475199477309</v>
       </c>
       <c r="D91">
-        <v>-0.06525069367875416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08543663640713146</v>
+      </c>
+      <c r="E91">
+        <v>-0.102667235254288</v>
+      </c>
+      <c r="F91">
+        <v>-0.03094665827318295</v>
+      </c>
+      <c r="G91">
+        <v>-0.09552104280296084</v>
+      </c>
+      <c r="H91">
+        <v>-0.09643244083329033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1654042766233425</v>
+        <v>0.2168685910195649</v>
       </c>
       <c r="C92">
-        <v>-0.2894357306072241</v>
+        <v>0.2733492478112203</v>
       </c>
       <c r="D92">
-        <v>0.002534814381964269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02487912913498105</v>
+      </c>
+      <c r="E92">
+        <v>-0.09276738103994059</v>
+      </c>
+      <c r="F92">
+        <v>0.01231966283477372</v>
+      </c>
+      <c r="G92">
+        <v>0.006757585683811971</v>
+      </c>
+      <c r="H92">
+        <v>0.04276734843947873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2333965429501678</v>
+        <v>0.2650268267879662</v>
       </c>
       <c r="C93">
-        <v>-0.3184747731979941</v>
+        <v>0.2714177288787394</v>
       </c>
       <c r="D93">
-        <v>-0.009661688013821756</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004168448989692262</v>
+      </c>
+      <c r="E93">
+        <v>-0.01839647243073857</v>
+      </c>
+      <c r="F93">
+        <v>-0.02414442803139447</v>
+      </c>
+      <c r="G93">
+        <v>0.001737148408295499</v>
+      </c>
+      <c r="H93">
+        <v>-0.006929187041029392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3967040906581989</v>
+        <v>0.3384084437754127</v>
       </c>
       <c r="C94">
-        <v>0.2326010960306328</v>
+        <v>-0.2637121773231891</v>
       </c>
       <c r="D94">
-        <v>-0.4781793249651792</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4485506259100397</v>
+      </c>
+      <c r="E94">
+        <v>-0.09358654588316362</v>
+      </c>
+      <c r="F94">
+        <v>0.02361287391446801</v>
+      </c>
+      <c r="G94">
+        <v>0.5828158448280609</v>
+      </c>
+      <c r="H94">
+        <v>-0.1562442867268043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07897475518820625</v>
+        <v>0.06881899904620449</v>
       </c>
       <c r="C95">
-        <v>0.07014953126684535</v>
+        <v>-0.06403265642630747</v>
       </c>
       <c r="D95">
-        <v>0.1242978383096176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08627899483972766</v>
+      </c>
+      <c r="E95">
+        <v>-0.02179221471758598</v>
+      </c>
+      <c r="F95">
+        <v>0.9194638300927808</v>
+      </c>
+      <c r="G95">
+        <v>-0.08602601153361164</v>
+      </c>
+      <c r="H95">
+        <v>-0.07383205881998564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1778827526652636</v>
+        <v>0.1632032307730634</v>
       </c>
       <c r="C98">
-        <v>0.0210888113922195</v>
+        <v>-0.06099744546180341</v>
       </c>
       <c r="D98">
-        <v>0.1507803034940537</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1279003555223051</v>
+      </c>
+      <c r="E98">
+        <v>0.3099759203500516</v>
+      </c>
+      <c r="F98">
+        <v>-0.04658640391709419</v>
+      </c>
+      <c r="G98">
+        <v>-0.04274653766026264</v>
+      </c>
+      <c r="H98">
+        <v>-0.03851925687526906</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004655306181757024</v>
+        <v>0.00622597169901438</v>
       </c>
       <c r="C101">
-        <v>0.02055315673879446</v>
+        <v>-0.02260975380409825</v>
       </c>
       <c r="D101">
-        <v>0.06636654727499143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08113780583132459</v>
+      </c>
+      <c r="E101">
+        <v>-0.03634157847938539</v>
+      </c>
+      <c r="F101">
+        <v>-0.004729100922777043</v>
+      </c>
+      <c r="G101">
+        <v>-0.005203271437993458</v>
+      </c>
+      <c r="H101">
+        <v>0.09658025075865956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1233319330412593</v>
+        <v>0.1092686441905536</v>
       </c>
       <c r="C102">
-        <v>0.1131217138213298</v>
+        <v>-0.1197389516455486</v>
       </c>
       <c r="D102">
-        <v>-0.03965717225796919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05281745186746007</v>
+      </c>
+      <c r="E102">
+        <v>-0.03277494184822909</v>
+      </c>
+      <c r="F102">
+        <v>0.02069895313443438</v>
+      </c>
+      <c r="G102">
+        <v>-0.05646167186132573</v>
+      </c>
+      <c r="H102">
+        <v>0.03201771582456935</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
